--- a/doc/计算机结构设计实验/RV64指令.xlsx
+++ b/doc/计算机结构设计实验/RV64指令.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@XLF\DC-CA-SA-Lab\doc\计算机结构设计实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D981E16-4CDC-4F89-A6D0-4DDBABA005B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F104B4-885A-4081-A78F-6E4503950580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22635" yWindow="2400" windowWidth="17280" windowHeight="8970" xr2:uid="{C57B1DD8-5BB5-4979-99DC-3AE07A20765A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C57B1DD8-5BB5-4979-99DC-3AE07A20765A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lab9" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
   <si>
     <t>opcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +114,112 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLLW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRLW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2</t>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -230,13 +337,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,19 +382,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B28D51-3893-49C0-A02E-2477D27D19F4}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -588,388 +781,774 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+      <c r="A1" s="4">
         <v>31</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>30</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>29</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="5">
         <v>28</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>27</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="5">
         <v>26</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <v>25</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="5">
         <v>24</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <v>23</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="5">
         <v>22</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>21</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="5">
         <v>20</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>19</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="5">
         <v>18</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <v>17</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="5">
         <v>16</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="4">
         <v>15</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="5">
         <v>14</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="4">
         <v>13</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="5">
         <v>12</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="4">
         <v>11</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="5">
         <v>10</v>
       </c>
-      <c r="W1" s="6">
-        <v>9</v>
-      </c>
-      <c r="X1" s="7">
+      <c r="W1" s="4">
+        <v>9</v>
+      </c>
+      <c r="X1" s="5">
         <v>8</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="4">
         <v>7</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="Z1" s="5">
         <v>6</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="4">
         <v>5</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AB1" s="5">
         <v>4</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="4">
         <v>3</v>
       </c>
-      <c r="AD1" s="7">
+      <c r="AD1" s="5">
         <v>2</v>
       </c>
-      <c r="AE1" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="7">
+      <c r="AE1" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="5">
         <v>0</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
       <c r="AG2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
       <c r="AG3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
       <c r="AG4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="s">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
       <c r="AG5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
       <c r="AG6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
       <c r="AG7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>31</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>25</v>
+      </c>
+      <c r="H9" s="9">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
+        <v>20</v>
+      </c>
+      <c r="M9" s="9">
+        <v>19</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9">
+        <v>12</v>
+      </c>
+      <c r="U9" s="9">
+        <v>11</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="58">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AF11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="Z6:AF6"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="A6:T6"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H5:L5"/>
@@ -977,28 +1556,825 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="Z6:AF6"/>
-    <mergeCell ref="Z7:AF7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CA82AD-80A3-4735-8C14-A2907556223A}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="6" width="5.77734375" customWidth="1"/>
+    <col min="7" max="8" width="3.77734375" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" customWidth="1"/>
+    <col min="11" max="12" width="7.77734375" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19">
+        <v>31</v>
+      </c>
+      <c r="B1" s="20">
+        <v>25</v>
+      </c>
+      <c r="C1" s="19">
+        <v>24</v>
+      </c>
+      <c r="D1" s="20">
+        <v>20</v>
+      </c>
+      <c r="E1" s="19">
+        <v>19</v>
+      </c>
+      <c r="F1" s="20">
+        <v>15</v>
+      </c>
+      <c r="G1" s="19">
+        <v>14</v>
+      </c>
+      <c r="H1" s="20">
+        <v>12</v>
+      </c>
+      <c r="I1" s="19">
+        <v>11</v>
+      </c>
+      <c r="J1" s="20">
+        <v>7</v>
+      </c>
+      <c r="K1" s="19">
+        <v>6</v>
+      </c>
+      <c r="L1" s="20">
+        <v>0</v>
+      </c>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>31</v>
+      </c>
+      <c r="B10" s="14">
+        <v>25</v>
+      </c>
+      <c r="C10" s="13">
+        <v>24</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13">
+        <v>14</v>
+      </c>
+      <c r="H10" s="14">
+        <v>12</v>
+      </c>
+      <c r="I10" s="13">
+        <v>11</v>
+      </c>
+      <c r="J10" s="14">
+        <v>7</v>
+      </c>
+      <c r="K10" s="13">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17">
+        <v>110011</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="119">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/计算机结构设计实验/RV64指令.xlsx
+++ b/doc/计算机结构设计实验/RV64指令.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@XLF\DC-CA-SA-Lab\doc\计算机结构设计实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F104B4-885A-4081-A78F-6E4503950580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40BF50-C22D-4AAB-BC86-351CADBD18A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C57B1DD8-5BB5-4979-99DC-3AE07A20765A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C57B1DD8-5BB5-4979-99DC-3AE07A20765A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="lab9" sheetId="2" r:id="rId2"/>
+    <sheet name="lab10" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="70">
   <si>
     <t>opcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +221,98 @@
   </si>
   <si>
     <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XORI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDIW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLLIW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRLIW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAIW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUIPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,52 +484,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,13 +547,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,663 +987,623 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
       <c r="AG2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7" t="s">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7" t="s">
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7" t="s">
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
       <c r="AG6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>31</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
         <v>25</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>24</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
         <v>20</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>19</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7">
         <v>12</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="7">
         <v>11</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9">
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7">
         <v>7</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="7">
         <v>6</v>
       </c>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9">
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7">
         <v>0</v>
       </c>
-      <c r="AG9" s="8"/>
+      <c r="AG9" s="6"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6" t="s">
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="12" t="s">
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7" t="s">
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="12" t="s">
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7" t="s">
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7" t="s">
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="12" t="s">
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7" t="s">
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7" t="s">
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="12" t="s">
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="12" t="s">
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="12" t="s">
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z10:AF10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AF11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="Z6:AF6"/>
-    <mergeCell ref="Z7:AF7"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:T7"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
@@ -1555,7 +1620,47 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="Z6:AF6"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AF11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CA82AD-80A3-4735-8C14-A2907556223A}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1582,748 +1687,709 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19">
+      <c r="A1" s="12">
         <v>31</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="13">
         <v>25</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="12">
         <v>24</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="13">
         <v>20</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="12">
         <v>19</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="13">
         <v>15</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="12">
         <v>14</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="13">
         <v>12</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="12">
         <v>11</v>
       </c>
-      <c r="J1" s="20">
+      <c r="J1" s="13">
         <v>7</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="12">
         <v>6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="13">
         <v>0</v>
       </c>
-      <c r="M1" s="21"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="24" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="24" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="24" t="s">
+      <c r="L7" s="24"/>
+      <c r="M7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>31</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="10">
         <v>25</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>24</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>20</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>19</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>15</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>14</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>12</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>11</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>7</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="9">
         <v>6</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20">
         <v>110011</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17">
+      <c r="H12" s="21"/>
+      <c r="I12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20">
         <v>110011</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="15" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17">
+      <c r="H13" s="21"/>
+      <c r="I13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20">
         <v>110011</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="15" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17">
+      <c r="H14" s="21"/>
+      <c r="I14" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20">
         <v>110011</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="15" t="s">
+      <c r="L14" s="21"/>
+      <c r="M14" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17">
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20">
         <v>110011</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="15" t="s">
+      <c r="L15" s="21"/>
+      <c r="M15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17">
+      <c r="H16" s="21"/>
+      <c r="I16" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20">
         <v>110011</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="15" t="s">
+      <c r="L16" s="21"/>
+      <c r="M16" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17">
+      <c r="H17" s="21"/>
+      <c r="I17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20">
         <v>110011</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="15" t="s">
+      <c r="L17" s="21"/>
+      <c r="M17" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17">
+      <c r="H18" s="21"/>
+      <c r="I18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20">
         <v>110011</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="15" t="s">
+      <c r="L18" s="21"/>
+      <c r="M18" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17">
+      <c r="H19" s="21"/>
+      <c r="I19" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20">
         <v>110011</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="15" t="s">
+      <c r="L19" s="21"/>
+      <c r="M19" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17">
+      <c r="H20" s="21"/>
+      <c r="I20" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20">
         <v>110011</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="15" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17">
+      <c r="H21" s="21"/>
+      <c r="I21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20">
         <v>110011</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="15" t="s">
+      <c r="L21" s="21"/>
+      <c r="M21" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="17">
+      <c r="H22" s="21"/>
+      <c r="I22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20">
         <v>110011</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="15" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17">
+      <c r="H23" s="21"/>
+      <c r="I23" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20">
         <v>110011</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="15" t="s">
+      <c r="L23" s="21"/>
+      <c r="M23" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17">
+      <c r="H24" s="21"/>
+      <c r="I24" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20">
         <v>110011</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="15" t="s">
+      <c r="L24" s="21"/>
+      <c r="M24" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17">
+      <c r="H25" s="21"/>
+      <c r="I25" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="20">
         <v>110011</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="15" t="s">
+      <c r="L25" s="21"/>
+      <c r="M25" s="11" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
@@ -2346,38 +2412,678 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A38639-9323-41D6-A922-F3151C958CE1}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="5" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="9" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9">
+        <v>14</v>
+      </c>
+      <c r="I1" s="10">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9">
+        <v>11</v>
+      </c>
+      <c r="K1" s="10">
+        <v>7</v>
+      </c>
+      <c r="L1" s="9">
+        <v>6</v>
+      </c>
+      <c r="M1" s="10">
+        <v>0</v>
+      </c>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9">
+        <v>11</v>
+      </c>
+      <c r="K17" s="10">
+        <v>7</v>
+      </c>
+      <c r="L17" s="9">
+        <v>6</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="N19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>